--- a/examples/for_equinor/for_equinor-monopile/15mw/60m/outputs/monotow_output.xlsx
+++ b/examples/for_equinor/for_equinor-monopile/15mw/60m/outputs/monotow_output.xlsx
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.5244418]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>geared</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -18449,7 +18449,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.5244418]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
